--- a/medicine/Enfance/Sans_Atout,_une_étrange_disparition/Sans_Atout,_une_étrange_disparition.xlsx
+++ b/medicine/Enfance/Sans_Atout,_une_étrange_disparition/Sans_Atout,_une_étrange_disparition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sans_Atout,_une_%C3%A9trange_disparition</t>
+          <t>Sans_Atout,_une_étrange_disparition</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sans Atout, une étrange disparition est un roman policier pour la jeunesse de Boileau-Narcejac, paru en 1985. C'est le sixième roman de la série de huit consacrée aux aventures de Sans Atout. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sans_Atout,_une_%C3%A9trange_disparition</t>
+          <t>Sans_Atout,_une_étrange_disparition</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylvaine, une jeune adolescente de 12 ans, vit avec sa mère et son beau-père qu'elle déteste. Un jour, elle reçoit une gifle de ce dernier. Alors elle décide de fuguer pendant que ses parents sont partis manger chez des amis. Avant de partir, elle laisse un mot sur leur lit. 
 L'adolescente se rend chez un ami, François, et lui demande d'aller reprendre le mot laissé chez elle. François y va, mais au moment de repartir, il voit de la lumière sous la porte de l'atelier du beau-père de Sylvaine. Il décide de l'éteindre. Quand il ouvre la porte, il voit un homme effondré, mort, sur son bureau !
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sans_Atout,_une_%C3%A9trange_disparition</t>
+          <t>Sans_Atout,_une_étrange_disparition</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'enquêteur : François, 12 ans, surnommé "Sans Atout".
 L'amie : Sylvaine Vaubercourt, 12 ans et amie avec François.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sans_Atout,_une_%C3%A9trange_disparition</t>
+          <t>Sans_Atout,_une_étrange_disparition</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Lieux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À Paris où habitent la famille Vaubercourt et la famille de François.
 À Kermoal, le lieu de vacances au bord de la mer des deux familles.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sans_Atout,_une_%C3%A9trange_disparition</t>
+          <t>Sans_Atout,_une_étrange_disparition</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Temps</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le récit se déroule à l'époque contemporaine, au début de l'été, pendant les vacances scolaires.
 </t>
